--- a/WIP/Recycled Energy Savings in Singapore/output/3-4_energy_conversions.xlsx
+++ b/WIP/Recycled Energy Savings in Singapore/output/3-4_energy_conversions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67a9b203362911a9/Documents/GitHub/02-Personal-Projects/WIP/Recycled Energy Savings in Singapore/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_23F921EDC5B34A1F372D4C2A75CA59745216291C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46D5D420-938A-43E6-87C5-4D35916D1668}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_23F921EDC5B34A1F372D4C2A75CA59745216291C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE299ABC-BB11-4F73-8E18-B5CB3E302D12}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="3630" windowWidth="21570" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,6 +242,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,9 +538,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -592,7 +594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -820,7 +822,7 @@
         <v>1185600</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1124,7 +1126,7 @@
         <v>2988000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1162,7 +1164,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1504,7 +1506,7 @@
         <v>1202400</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1694,7 +1696,7 @@
         <v>2880000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1732,7 +1734,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>2924000</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2264,7 +2266,7 @@
         <v>4112000</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2454,7 +2456,7 @@
         <v>3892000</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2834,7 +2836,7 @@
         <v>3788000</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2910,7 +2912,7 @@
         <v>6640700</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3102,7 @@
         <v>952000</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3404,7 +3406,7 @@
         <v>3680000</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -3594,7 +3596,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -3784,7 +3786,7 @@
         <v>4960000</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -3974,7 +3976,7 @@
         <v>2920000</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -4164,7 +4166,7 @@
         <v>3480000</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -4202,7 +4204,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -4240,7 +4242,7 @@
         <v>2395800</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -4278,7 +4280,7 @@
         <v>4334000</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -4316,7 +4318,7 @@
         <v>912000</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -4394,9 +4396,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L101" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
+    <filterColumn colId="0">
       <filters>
-        <filter val="2022"/>
+        <filter val="glass"/>
       </filters>
     </filterColumn>
   </autoFilter>
